--- a/data/trans_dic/P56$privada-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P56$privada-Estudios-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.09824619426327937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1620280946148092</v>
+        <v>0.1620280946148093</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1016226695455214</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02096020583525818</v>
+        <v>0.01990072474206316</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03291291564575306</v>
+        <v>0.04449114405007208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04552408286331504</v>
+        <v>0.03817042891326151</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.09648331113133657</v>
+        <v>0.1002904599224425</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.05027761401141433</v>
+        <v>0.04956642514838867</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.08034341767195143</v>
+        <v>0.0809210654004282</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08674200846280922</v>
+        <v>0.08802882772239112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1441856755582324</v>
+        <v>0.1479763648464182</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0498822936391258</v>
+        <v>0.04740517487589407</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07662641523364505</v>
+        <v>0.08073901561717366</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08913549753945896</v>
+        <v>0.08713875910092178</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1461049784581789</v>
+        <v>0.1456336519165314</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1845232958281026</v>
+        <v>0.1912951347412004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1976661370282577</v>
+        <v>0.1879159799434048</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1913683152167798</v>
+        <v>0.1951459631586012</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2351910499735256</v>
+        <v>0.2368282144940711</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1877244272191814</v>
+        <v>0.1943325657458019</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1850666360773962</v>
+        <v>0.1837063726049853</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2164759706472543</v>
+        <v>0.2164676163464443</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2233023008203136</v>
+        <v>0.226822842842296</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1571704111557186</v>
+        <v>0.1552361452728668</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1622881219016007</v>
+        <v>0.1686836461424145</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1925373387932932</v>
+        <v>0.1924968661744236</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2170492499429839</v>
+        <v>0.2149653444030084</v>
       </c>
     </row>
     <row r="7">
@@ -846,34 +846,34 @@
       <c r="C8" s="5" t="inlineStr"/>
       <c r="D8" s="5" t="inlineStr"/>
       <c r="E8" s="5" t="n">
-        <v>0.1288558348973847</v>
+        <v>0.1318150596448733</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.04523872014434849</v>
+        <v>0.04937678443343697</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.0823336077044389</v>
+        <v>0.08400349087673403</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.04110693608782794</v>
+        <v>0.04263788439155813</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1120890614478107</v>
+        <v>0.1134528161506381</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.04569651208552464</v>
+        <v>0.04625270766112025</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.121872586243256</v>
+        <v>0.1069877099418589</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1081124852439818</v>
+        <v>0.1110424992522516</v>
       </c>
     </row>
     <row r="9">
@@ -886,34 +886,34 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.6570203166665659</v>
+        <v>0.6606017283866225</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2512413916240508</v>
+        <v>0.2569313270932275</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6732778822923626</v>
+        <v>0.6957771242737937</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.5799816551626378</v>
+        <v>0.6281557760404601</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4401836081451319</v>
+        <v>0.4469975606047984</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.270868429980045</v>
+        <v>0.2787524022185193</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4375105807467838</v>
+        <v>0.4296663134726881</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3566888709039452</v>
+        <v>0.3541238779981801</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4357442085480964</v>
+        <v>0.4281617617803173</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2362696703220393</v>
+        <v>0.2384911788901276</v>
       </c>
     </row>
     <row r="10">
@@ -959,7 +959,7 @@
         <v>0.1741889227293901</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09739212726493701</v>
+        <v>0.09739212726493703</v>
       </c>
     </row>
     <row r="11">
@@ -991,13 +991,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1801412518475428</v>
+        <v>0.178379491403274</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.02588459174625</v>
+        <v>0.02603873087619255</v>
       </c>
     </row>
     <row r="12">
@@ -1011,7 +1011,7 @@
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="inlineStr"/>
       <c r="F12" s="5" t="n">
-        <v>0.3479429018444647</v>
+        <v>0.3582642955986464</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3786270104132308</v>
+        <v>0.4128704464779834</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>1</v>
@@ -1032,10 +1032,10 @@
         <v>1</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7592006314974553</v>
+        <v>0.6846876149727729</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.274620259069853</v>
+        <v>0.2510123270766157</v>
       </c>
     </row>
     <row r="13">
@@ -1071,7 +1071,7 @@
         <v>0.1546563186860344</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1800075539414836</v>
+        <v>0.1800075539414835</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1005434669425375</v>
@@ -1083,7 +1083,7 @@
         <v>0.1488993992933316</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1712395289094711</v>
+        <v>0.1712395289094712</v>
       </c>
     </row>
     <row r="14">
@@ -1094,40 +1094,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1014475564801505</v>
+        <v>0.09851109419913492</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.09671793101014793</v>
+        <v>0.09531104110719364</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1481761175361913</v>
+        <v>0.1453124542941501</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09166106611170773</v>
+        <v>0.09257655273484776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1436635262314904</v>
+        <v>0.1427689306112577</v>
       </c>
     </row>
     <row r="15">
@@ -1138,40 +1138,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2111232966255995</v>
+        <v>0.2103457189002565</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2002032986703373</v>
+        <v>0.2005767115105304</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2157138777285196</v>
+        <v>0.2150043450374452</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.172579034268937</v>
+        <v>0.1802019829018275</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2014847465595295</v>
+        <v>0.2001600870104902</v>
       </c>
     </row>
     <row r="16">
@@ -1441,40 +1441,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>925</v>
+        <v>878</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2251</v>
+        <v>3043</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2581</v>
+        <v>2164</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>6971</v>
+        <v>7246</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4194</v>
+        <v>4135</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14940</v>
+        <v>15047</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>12381</v>
+        <v>12565</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>31313</v>
+        <v>32136</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6363</v>
+        <v>6047</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>19489</v>
+        <v>20535</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17776</v>
+        <v>17377</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>42285</v>
+        <v>42149</v>
       </c>
     </row>
     <row r="7">
@@ -1485,40 +1485,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>8144</v>
+        <v>8443</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13519</v>
+        <v>12852</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>10848</v>
+        <v>11063</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>16992</v>
+        <v>17110</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>15659</v>
+        <v>16210</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>34413</v>
+        <v>34160</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>30898</v>
+        <v>30897</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>48494</v>
+        <v>49259</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>20047</v>
+        <v>19801</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>41277</v>
+        <v>42903</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>38396</v>
+        <v>38388</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>62818</v>
+        <v>62215</v>
       </c>
     </row>
     <row r="8">
@@ -1623,34 +1623,34 @@
       <c r="C10" s="6" t="inlineStr"/>
       <c r="D10" s="6" t="inlineStr"/>
       <c r="E10" s="6" t="n">
-        <v>1441</v>
+        <v>1474</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1294</v>
+        <v>1412</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1043</v>
+        <v>1082</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5387</v>
+        <v>5453</v>
       </c>
       <c r="K10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4456</v>
+        <v>3912</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8287</v>
+        <v>8512</v>
       </c>
     </row>
     <row r="11">
@@ -1663,34 +1663,34 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>7345</v>
+        <v>7386</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7184</v>
+        <v>7346</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>4557</v>
+        <v>4710</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>6822</v>
+        <v>7389</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>11174</v>
+        <v>11347</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>13018</v>
+        <v>13397</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>4775</v>
+        <v>4689</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7451</v>
+        <v>7397</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>15933</v>
+        <v>15655</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>18111</v>
+        <v>18282</v>
       </c>
     </row>
     <row r="12">
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15">
@@ -1832,7 +1832,7 @@
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="inlineStr"/>
       <c r="F15" s="6" t="n">
-        <v>2487</v>
+        <v>2561</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>3361</v>
@@ -1844,7 +1844,7 @@
         <v>3671</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3093</v>
+        <v>3372</v>
       </c>
       <c r="K15" s="6" t="n">
         <v>3361</v>
@@ -1853,10 +1853,10 @@
         <v>5409</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>5996</v>
+        <v>5408</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>4206</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="16">
@@ -1959,40 +1959,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>10955</v>
+        <v>10638</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19550</v>
+        <v>19266</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>40511</v>
+        <v>39728</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>25724</v>
+        <v>25981</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>54792</v>
+        <v>54450</v>
       </c>
     </row>
     <row r="19">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>22799</v>
+        <v>22715</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>40468</v>
+        <v>40544</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>58976</v>
+        <v>58782</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>48433</v>
+        <v>50572</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>76844</v>
+        <v>76339</v>
       </c>
     </row>
     <row r="20">
